--- a/inst/extdata/Tutorial/Individuals.xlsx
+++ b/inst/extdata/Tutorial/Individuals.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="IndividualBiometrics" sheetId="1" state="visible" r:id="rId3"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="30">
   <si>
     <t xml:space="preserve">IndividualId</t>
   </si>
@@ -51,10 +51,7 @@
     <t xml:space="preserve">Age [year(s)]</t>
   </si>
   <si>
-    <t xml:space="preserve">Protein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ontogeny</t>
+    <t xml:space="preserve">Protein Ontogenies</t>
   </si>
   <si>
     <t xml:space="preserve">I123413</t>
@@ -69,7 +66,7 @@
     <t xml:space="preserve">MALE</t>
   </si>
   <si>
-    <t xml:space="preserve">CYP3A4,UGT1A4</t>
+    <t xml:space="preserve">CYP3A4:CYP3A4, UGT1A4:UGT1A4</t>
   </si>
   <si>
     <t xml:space="preserve">I123430</t>
@@ -203,12 +200,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -401,230 +402,209 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="A7 H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="8.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="1" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="0" t="n">
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>58.8</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>161</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="F5" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>164</v>
-      </c>
-      <c r="G3" s="0" t="n">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="G7" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>61.8</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>158</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>158</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>176</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>160</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -646,33 +626,33 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E39" activeCellId="1" sqref="A7 E39"/>
+      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -692,96 +672,96 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>9</v>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -803,33 +783,33 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E39" activeCellId="1" sqref="A7 E39"/>
+      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -850,33 +830,33 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E39" activeCellId="1" sqref="A7 E39"/>
+      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -897,33 +877,33 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E39" activeCellId="1" sqref="A7 E39"/>
+      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -944,33 +924,33 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E39" activeCellId="1" sqref="A7 E39"/>
+      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -991,33 +971,33 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E39" activeCellId="1" sqref="A7 E39"/>
+      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1038,33 +1018,33 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E39" activeCellId="1" sqref="A7 E39"/>
+      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
